--- a/dados/bksound acessorios.xlsx
+++ b/dados/bksound acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -546,17 +586,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703818843#searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703818843#searchVariation=MLB22144397&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -571,17 +621,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -596,17 +656,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -621,17 +687,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -646,17 +722,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=a9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -671,17 +757,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -696,17 +792,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -721,17 +827,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -746,17 +862,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -771,17 +897,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>
@@ -796,17 +932,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da9298a3f-976c-49f4-9d29-8529402d9d63</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
         </is>
       </c>
     </row>

--- a/dados/bksound acessorios.xlsx
+++ b/dados/bksound acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>624.33</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,29 +532,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -566,28 +558,28 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>681.83</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -606,23 +598,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703818843#searchVariation=MLB22144397&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>805.59</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -631,7 +623,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,54 +633,58 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>90</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>634.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,23 +703,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -732,42 +728,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>457.29</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -777,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
@@ -787,14 +783,14 @@
           <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>634.78</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -812,32 +808,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>457.29</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -847,32 +843,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>457.29</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -882,7 +878,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>
@@ -892,14 +888,14 @@
           <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>845.87</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -907,7 +903,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -917,42 +913,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>457.29</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D986a7aa9-7d24-47d8-a753-98e6da131914</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
         </is>
       </c>
     </row>

--- a/dados/bksound acessorios.xlsx
+++ b/dados/bksound acessorios.xlsx
@@ -501,25 +501,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
@@ -544,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>90</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -563,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
@@ -598,23 +606,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>805.59</v>
+        <v>422.93</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -623,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>422.93</v>
+        <v>774.88</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -658,24 +666,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -684,7 +692,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>634.4</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -693,24 +701,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -719,7 +727,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>674.6799999999999</v>
+        <v>634.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -728,33 +736,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>457.29</v>
+        <v>634.78</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -768,28 +776,28 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>634.78</v>
+        <v>457.29</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -803,12 +811,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
@@ -843,27 +851,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>457.29</v>
+        <v>845.87</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -878,32 +886,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>845.87</v>
+        <v>457.29</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -913,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D14ea7102-558e-4a6c-aa1b-21b38e69e438</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
         </is>
       </c>
     </row>

--- a/dados/bksound acessorios.xlsx
+++ b/dados/bksound acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,455 +483,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>624.33</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703818843#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>805.59</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2677379556-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>681.83</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703818843#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>422.93</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703818843#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>774.88</v>
+          <t>bksound acessorios</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703818843#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>634.78</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164246906-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>457.29</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3801613892-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2677379815-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>457.29</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3813696866-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df395d0d0-e844-420b-bfb2-e43ebad336e1</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
         </is>
       </c>
     </row>

--- a/dados/bksound acessorios.xlsx
+++ b/dados/bksound acessorios.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>845.87</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>845.87</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703818843#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>805.59</v>
+        <v>736.61</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2677379556-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164283206-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200 Amperes Storm Bivolt C/ Medidor Caa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>736.61</v>
+        <v>805.59</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:703818843#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2677379556-fonte-automotiva-jfa-200-amperes-storm-bivolt-c-medidor-caa-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +718,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>694.8200000000001</v>
+        <v>90</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc57952d-ac9f-4c5d-8a75-bd17874fd025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2698193784-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc4dfe7c4-9052-49cb-8c7b-391a8157a7ca</t>
         </is>
       </c>
     </row>
